--- a/Advanced/a.sato/レビュー記録表_電卓アプリ_佐藤歩.xlsx
+++ b/Advanced/a.sato/レビュー記録表_電卓アプリ_佐藤歩.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="記録表" sheetId="1" r:id="rId1"/>
@@ -309,161 +309,193 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -473,9 +505,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -486,9 +516,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -499,9 +527,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -510,9 +536,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -523,9 +547,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -534,9 +556,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -545,9 +565,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -558,9 +576,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -569,9 +585,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -582,9 +596,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -599,9 +611,7 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -616,9 +626,7 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -633,9 +641,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -646,9 +652,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -659,9 +663,7 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -676,33 +678,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -717,9 +711,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -734,9 +726,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -751,17 +741,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -770,9 +756,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -787,16 +771,16 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -1565,18 +1549,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A10" s="26">
-        <v>1</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="29">
-        <v>43114</v>
-      </c>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="29"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
@@ -1585,18 +1561,10 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A11" s="26">
-        <v>2</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="29">
-        <v>43114</v>
-      </c>
+      <c r="A11" s="26"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
@@ -1605,18 +1573,10 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A12" s="26">
-        <v>3</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="29">
-        <v>43114</v>
-      </c>
+      <c r="A12" s="26"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="29"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
@@ -1625,18 +1585,10 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A13" s="26">
-        <v>4</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="29">
-        <v>43114</v>
-      </c>
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
@@ -1645,18 +1597,10 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A14" s="26">
-        <v>5</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="29">
-        <v>43114</v>
-      </c>
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
@@ -1665,18 +1609,10 @@
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A15" s="26">
-        <v>6</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="29">
-        <v>43114</v>
-      </c>
+      <c r="A15" s="26"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>

--- a/Advanced/a.sato/レビュー記録表_電卓アプリ_佐藤歩.xlsx
+++ b/Advanced/a.sato/レビュー記録表_電卓アプリ_佐藤歩.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="記録表" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>レビュー記録表</t>
   </si>
@@ -109,6 +109,21 @@
   <si>
     <t>演算子を何回も入力できてしまう
 計算するときはどの演算子を使用しているのか？</t>
+  </si>
+  <si>
+    <t>初期状態から演算子入力後に"="ボタン押下で例外発生する。</t>
+  </si>
+  <si>
+    <t>入力値が11桁未満で計算結果が11桁以上のときに例外が発生する。</t>
+  </si>
+  <si>
+    <t>井川</t>
+  </si>
+  <si>
+    <t>例外処理の組込漏れ。</t>
+  </si>
+  <si>
+    <t>例外処理の追加。</t>
   </si>
 </sst>
 </file>
@@ -499,13 +514,15 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -516,7 +533,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -527,7 +546,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -536,7 +557,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -547,7 +570,9 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -556,7 +581,9 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -565,7 +592,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -576,7 +605,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -585,7 +616,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
@@ -596,7 +629,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -611,7 +646,9 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -626,7 +663,9 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -641,7 +680,9 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -652,7 +693,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -663,7 +706,9 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -678,25 +723,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -711,7 +764,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -726,7 +781,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -741,13 +798,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -756,7 +817,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -771,13 +834,64 @@
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="1"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color theme="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
       </diagonal>
@@ -932,7 +1046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1145,15 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1377,7 +1500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -1388,7 +1511,7 @@
     <col min="4" max="4" style="1" width="12.29071413" customWidth="1" outlineLevel="0"/>
     <col min="5" max="6" style="1" width="30.86214338" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="1" width="8.00499998" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="1" width="12.29071413" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
     <col min="10" max="10" style="1" width="8.00499998" customWidth="1" outlineLevel="0"/>
     <col min="11" max="16384" style="1" width="9.00499998" customWidth="1" outlineLevel="0"/>
@@ -1538,7 +1661,7 @@
       <c r="G9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="33">
         <v>43107</v>
       </c>
       <c r="I9" s="24" t="s">
@@ -1549,26 +1672,58 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="A10" s="26">
+        <v>1</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="29">
+        <v>43113</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="29">
+        <v>43128</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="29.250000" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
+      <c r="A11" s="26">
+        <v>2</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="29">
+        <v>43113</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="29">
+        <v>43128</v>
+      </c>
       <c r="I11" s="26"/>
       <c r="J11" s="26"/>
     </row>
